--- a/incidents_categorized.xlsx
+++ b/incidents_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,11 +582,6 @@
       <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>auto_category</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>auto_summary</t>
         </is>
       </c>
     </row>
@@ -734,8 +729,11 @@
       <c r="AC2" t="n">
         <v>2</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>File Transfer</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,8 +859,11 @@
       <c r="AC3" t="n">
         <v>7</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1007,8 +1008,11 @@
       <c r="AC4" t="n">
         <v>1</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Job Failure</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1134,10 +1138,9 @@
       <c r="AC5" t="n">
         <v>3</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>The MFT_MQFTE_AFG_XB60 query showed a non</t>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Performance</t>
         </is>
       </c>
     </row>
@@ -1286,8 +1289,11 @@
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1434,8 +1440,11 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1582,10 +1591,9 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>A queue named MS_DWS.PORD_LGCY_C278_HEM1_BACK</t>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Performance</t>
         </is>
       </c>
     </row>
@@ -1734,10 +1742,9 @@
       <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>A queue (MS_DWS.PORD_L</t>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Performance</t>
         </is>
       </c>
     </row>
@@ -1886,8 +1893,11 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2034,8 +2044,11 @@
       <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2161,8 +2174,11 @@
       <c r="AC12" t="n">
         <v>4</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Queue Issue</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2288,8 +2304,11 @@
       <c r="AC13" t="n">
         <v>6</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2434,8 +2453,11 @@
       <c r="AC14" t="n">
         <v>1</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Job Failure</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2580,8 +2602,11 @@
       <c r="AC15" t="n">
         <v>1</v>
       </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Job Failure</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2726,8 +2751,11 @@
       <c r="AC16" t="n">
         <v>1</v>
       </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Job Failure</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2856,8 +2884,11 @@
       <c r="AC17" t="n">
         <v>5</v>
       </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>WLM Failure</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3003,8 +3034,11 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Queue Issue</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3130,8 +3164,11 @@
       <c r="AC19" t="n">
         <v>3</v>
       </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3277,8 +3314,11 @@
       <c r="AC20" t="n">
         <v>2</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>File Transfer</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3408,8 +3448,11 @@
       <c r="AC21" t="n">
         <v>5</v>
       </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>File Age Alert</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
